--- a/Excel VM/program.xlsx
+++ b/Excel VM/program.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,15 +360,15 @@
         <v>1</v>
       </c>
       <c r="G1">
-        <f ca="1">CHOOSE(F1,A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,A16,A17,A18,A19,A20,A21,A22,A23,A24,A25,A26,A27,A28,A29,A30,A31,A32,A33,A34,A35,A36,A37,A38,A39,A40,A41,A42,A43,A44,A45,A46,A47,A48,A49,A50,A51,A52,A53,A54,A55,A56,A57,A58,A59,A60,A61,A62,A63,A64,A65,A66,A67,A68,A69,A70,A71,A72,A73,A74,A75,A76)</f>
+        <f ca="1">CHOOSE(F1,A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,A16,A17,A18,A19,A20,A21,A22,A23,A24,A25,A26,A27,A28,A29,A30,A31,A32,A33,A34,A35,A36,A37,A38,A39,A40,A41,A42,A43,A44,A45,A46,A47,A48,A49,A50,A51,A52,A53,A54,A55,A56,A57,A58,A59,A60,A61,A62,A63,A64,A65,A66,A67,A68)</f>
         <v>0</v>
       </c>
       <c r="H1">
-        <f ca="1">CHOOSE(F1,B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63,B64,B65,B66,B67,B68,B69,B70,B71,B72,B73,B74,B75,B76)</f>
+        <f ca="1">CHOOSE(F1,B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63,B64,B65,B66,B67,B68)</f>
         <v>0</v>
       </c>
       <c r="I1">
-        <f ca="1">IF((F1)=(2),CHOOSE(F1,C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22,C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76),(I1)+(CHOOSE(F1,C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22,C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76)))</f>
+        <f ca="1">IF((F1)=(2),CHOOSE(F1,C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22,C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68),(I1)+(CHOOSE(F1,C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22,C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68)))</f>
         <v>0</v>
       </c>
       <c r="J1">
@@ -420,8 +420,8 @@
         <v>push</v>
       </c>
       <c r="B3">
-        <f ca="1">39</f>
-        <v>39</v>
+        <f ca="1">55</f>
+        <v>55</v>
       </c>
       <c r="C3">
         <f ca="1">1</f>
@@ -552,8 +552,8 @@
         <v>push</v>
       </c>
       <c r="B9">
-        <f ca="1">33</f>
-        <v>33</v>
+        <f ca="1">2</f>
+        <v>2</v>
       </c>
       <c r="C9">
         <f ca="1">1</f>
@@ -570,16 +570,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B10" t="b">
-        <f ca="1">TRUE</f>
-        <v>1</v>
+        <f ca="1">"load"</f>
+        <v>load</v>
+      </c>
+      <c r="B10" t="str">
+        <f ca="1">""</f>
+        <v/>
       </c>
       <c r="C10">
-        <f ca="1">1</f>
-        <v>1</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
       <c r="M10" t="str">
         <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(10),M10,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M10)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M10)+(M11),IF((G1)=("eql"),(M10)=(M11),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M10))))))))</f>
@@ -592,163 +592,163 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B11">
+        <f ca="1">16</f>
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+      <c r="M11" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(11),M11,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M11)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M11)+(M12),IF((G1)=("eql"),(M11)=(M12),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M11))))))))</f>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(11),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N11),N11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B12" t="str">
+        <f ca="1">"a"</f>
+        <v>a</v>
+      </c>
+      <c r="C12">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+      <c r="M12" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(12),M12,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M12)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M12)+(M13),IF((G1)=("eql"),(M12)=(M13),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M12))))))))</f>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(12),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N12),N12))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f ca="1">"print"</f>
+        <v>print</v>
+      </c>
+      <c r="B13" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C13">
+        <f ca="1">-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M13" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(13),M13,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M13)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M13)+(M14),IF((G1)=("eql"),(M13)=(M14),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M13))))))))</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(13),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N13),N13))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B14" t="b">
+        <f ca="1">TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+      <c r="M14" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(14),M14,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M14)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M14)+(M15),IF((G1)=("eql"),(M14)=(M15),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M14))))))))</f>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(14),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N14),N14))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
         <f ca="1">"goto if true"</f>
         <v>goto if true</v>
       </c>
-      <c r="B11" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C11">
+      <c r="B15" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C15">
         <f ca="1">-2</f>
         <v>-2</v>
       </c>
-      <c r="M11" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(11),M11,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M11)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M11)+(M12),IF((G1)=("eql"),(M11)=(M12),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M11))))))))</f>
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(11),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N11),N11))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="M15" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(15),M15,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M15)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M15)+(M16),IF((G1)=("eql"),(M15)=(M16),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M15))))))))</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(15),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N15),N15))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
         <f ca="1">"f2:"</f>
         <v>f2:</v>
       </c>
-      <c r="B12" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C12">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-      <c r="M12" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(12),M12,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M12)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M12)+(M13),IF((G1)=("eql"),(M12)=(M13),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M12))))))))</f>
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(12),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N12),N12))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B13">
-        <f ca="1">3</f>
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-      <c r="M13" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(13),M13,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M13)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M13)+(M14),IF((G1)=("eql"),(M13)=(M14),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M13))))))))</f>
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(13),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N13),N13))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="B16" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C16">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(16),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N16),N16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B17">
+        <f ca="1">2</f>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+      <c r="N17" t="str">
+        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(17),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N17),N17))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
         <f ca="1">"store"</f>
         <v>store</v>
       </c>
-      <c r="B14" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C14">
+      <c r="B18" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C18">
         <f ca="1">-2</f>
         <v>-2</v>
       </c>
-      <c r="M14" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(14),M14,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M14)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M14)+(M15),IF((G1)=("eql"),(M14)=(M15),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M14))))))))</f>
-        <v/>
-      </c>
-      <c r="N14" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(14),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N14),N14))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B15">
-        <f ca="1">27</f>
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-      <c r="M15" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((I1)&lt;&gt;(15),M15,IF((G1)=("push"),H1,IF((G1)=("load"),CHOOSE((M15)+(1),N1,N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30),IF((G1)=("add"),(M15)+(M16),IF((G1)=("eql"),(M15)=(M16),IF((G1)=("allocate"),J1,IF((G1)=("allocate next"),(J1)-(1),M15))))))))</f>
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(15),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N15),N15))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B16" t="b">
-        <f ca="1">TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-      <c r="N16" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(16),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N16),N16))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f ca="1">"goto if true"</f>
-        <v>goto if true</v>
-      </c>
-      <c r="B17" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C17">
-        <f ca="1">-2</f>
-        <v>-2</v>
-      </c>
-      <c r="N17" t="str">
-        <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(17),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N17),N17))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f ca="1">"f3:"</f>
-        <v>f3:</v>
-      </c>
-      <c r="B18" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C18">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
       <c r="N18" t="str">
         <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(18),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N18),N18))</f>
         <v/>
@@ -760,8 +760,8 @@
         <v>push</v>
       </c>
       <c r="B19">
-        <f ca="1">4</f>
-        <v>4</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
       <c r="C19">
         <f ca="1">1</f>
@@ -774,16 +774,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f ca="1">"store"</f>
-        <v>store</v>
+        <f ca="1">"load"</f>
+        <v>load</v>
       </c>
       <c r="B20" t="str">
         <f ca="1">""</f>
         <v/>
       </c>
       <c r="C20">
-        <f ca="1">-2</f>
-        <v>-2</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
       <c r="N20" t="str">
         <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(20),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N20),N20))</f>
@@ -810,16 +810,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f ca="1">"load"</f>
-        <v>load</v>
+        <f ca="1">"store"</f>
+        <v>store</v>
       </c>
       <c r="B22" t="str">
         <f ca="1">""</f>
         <v/>
       </c>
       <c r="C22">
-        <f ca="1">0</f>
-        <v>0</v>
+        <f ca="1">-2</f>
+        <v>-2</v>
       </c>
       <c r="N22" t="str">
         <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(22),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N22),N22))</f>
@@ -832,8 +832,8 @@
         <v>push</v>
       </c>
       <c r="B23">
-        <f ca="1">0</f>
-        <v>0</v>
+        <f ca="1">47</f>
+        <v>47</v>
       </c>
       <c r="C23">
         <f ca="1">1</f>
@@ -846,16 +846,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f ca="1">"store"</f>
-        <v>store</v>
-      </c>
-      <c r="B24" t="str">
-        <f ca="1">""</f>
-        <v/>
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B24">
+        <f ca="1">29</f>
+        <v>29</v>
       </c>
       <c r="C24">
-        <f ca="1">-2</f>
-        <v>-2</v>
+        <f ca="1">1</f>
+        <v>1</v>
       </c>
       <c r="N24" t="str">
         <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(24),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N24),N24))</f>
@@ -900,16 +900,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f ca="1">"c3:"</f>
-        <v>c3:</v>
-      </c>
-      <c r="B27" t="str">
-        <f ca="1">""</f>
-        <v/>
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B27" t="b">
+        <f ca="1">TRUE</f>
+        <v>1</v>
       </c>
       <c r="C27">
-        <f ca="1">0</f>
-        <v>0</v>
+        <f ca="1">1</f>
+        <v>1</v>
       </c>
       <c r="N27" t="str">
         <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(27),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N27),N27))</f>
@@ -918,16 +918,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B28">
-        <f ca="1">18</f>
-        <v>18</v>
+        <f ca="1">"goto if true"</f>
+        <v>goto if true</v>
+      </c>
+      <c r="B28" t="str">
+        <f ca="1">""</f>
+        <v/>
       </c>
       <c r="C28">
-        <f ca="1">1</f>
-        <v>1</v>
+        <f ca="1">-2</f>
+        <v>-2</v>
       </c>
       <c r="N28" t="str">
         <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(28),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N28),N28))</f>
@@ -936,16 +936,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B29">
-        <f ca="1">0</f>
-        <v>0</v>
+        <f ca="1">"if1:"</f>
+        <v>if1:</v>
+      </c>
+      <c r="B29" t="str">
+        <f ca="1">""</f>
+        <v/>
       </c>
       <c r="C29">
-        <f ca="1">1</f>
-        <v>1</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
       <c r="N29" t="str">
         <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(29),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N29),N29))</f>
@@ -954,16 +954,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f ca="1">"store"</f>
-        <v>store</v>
-      </c>
-      <c r="B30" t="str">
-        <f ca="1">""</f>
-        <v/>
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B30">
+        <f ca="1">2</f>
+        <v>2</v>
       </c>
       <c r="C30">
-        <f ca="1">-2</f>
-        <v>-2</v>
+        <f ca="1">1</f>
+        <v>1</v>
       </c>
       <c r="N30" t="str">
         <f ca="1">IF((F1)=(1),"",IF((G1)=("store"),IF(((CHOOSE((I1)+(2),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15))+(1))=(30),CHOOSE((I1)+(1),M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15),N30),N30))</f>
@@ -972,58 +972,58 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B31" t="b">
-        <f ca="1">TRUE</f>
-        <v>1</v>
+        <f ca="1">"load"</f>
+        <v>load</v>
+      </c>
+      <c r="B31" t="str">
+        <f ca="1">""</f>
+        <v/>
       </c>
       <c r="C31">
-        <f ca="1">1</f>
-        <v>1</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f ca="1">"goto if true"</f>
-        <v>goto if true</v>
-      </c>
-      <c r="B32" t="str">
-        <f ca="1">""</f>
-        <v/>
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B32">
+        <f ca="1">39</f>
+        <v>39</v>
       </c>
       <c r="C32">
-        <f ca="1">-2</f>
-        <v>-2</v>
+        <f ca="1">1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f ca="1">"c2:"</f>
-        <v>c2:</v>
-      </c>
-      <c r="B33" t="str">
-        <f ca="1">""</f>
-        <v/>
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B33">
+        <f ca="1">2</f>
+        <v>2</v>
       </c>
       <c r="C33">
-        <f ca="1">0</f>
-        <v>0</v>
+        <f ca="1">1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B34">
-        <f ca="1">12</f>
-        <v>12</v>
+        <f ca="1">"load"</f>
+        <v>load</v>
+      </c>
+      <c r="B34" t="str">
+        <f ca="1">""</f>
+        <v/>
       </c>
       <c r="C34">
-        <f ca="1">1</f>
-        <v>1</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,8 +1032,8 @@
         <v>push</v>
       </c>
       <c r="B35">
-        <f ca="1">0</f>
-        <v>0</v>
+        <f ca="1">1</f>
+        <v>1</v>
       </c>
       <c r="C35">
         <f ca="1">1</f>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f ca="1">"store"</f>
-        <v>store</v>
+        <f ca="1">"load"</f>
+        <v>load</v>
       </c>
       <c r="B36" t="str">
         <f ca="1">""</f>
         <v/>
       </c>
       <c r="C36">
-        <f ca="1">-2</f>
-        <v>-2</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,274 +1084,274 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
+        <f ca="1">"f3:"</f>
+        <v>f3:</v>
+      </c>
+      <c r="B39" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C39">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B40">
+        <f ca="1">2</f>
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f ca="1">"store"</f>
+        <v>store</v>
+      </c>
+      <c r="B41" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <f ca="1">-2</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B42">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f ca="1">"load"</f>
+        <v>load</v>
+      </c>
+      <c r="B43" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C43">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B44">
+        <f ca="1">50</f>
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B45" t="b">
+        <f ca="1">TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f ca="1">"goto if true"</f>
+        <v>goto if true</v>
+      </c>
+      <c r="B46" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C46">
+        <f ca="1">-2</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f ca="1">"if2:"</f>
+        <v>if2:</v>
+      </c>
+      <c r="B47" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C47">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B48">
+        <f ca="1">2</f>
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f ca="1">"load"</f>
+        <v>load</v>
+      </c>
+      <c r="B49" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C49">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f ca="1">"if3:"</f>
+        <v>if3:</v>
+      </c>
+      <c r="B50" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C50">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B51">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f ca="1">"store"</f>
+        <v>store</v>
+      </c>
+      <c r="B52" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C52">
+        <f ca="1">-2</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B53" t="b">
+        <f ca="1">TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f ca="1">"goto if true"</f>
+        <v>goto if true</v>
+      </c>
+      <c r="B54" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C54">
+        <f ca="1">-2</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
         <f ca="1">"c1:"</f>
         <v>c1:</v>
       </c>
-      <c r="B39" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C39">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B40">
+      <c r="B55" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C55">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B56">
         <f ca="1">6</f>
         <v>6</v>
       </c>
-      <c r="C40">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B41">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+      <c r="C56">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B57">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
         <f ca="1">"store"</f>
         <v>store</v>
-      </c>
-      <c r="B42" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C42">
-        <f ca="1">-2</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B43">
-        <f ca="1">70</f>
-        <v>70</v>
-      </c>
-      <c r="C43">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B44">
-        <f ca="1">64</f>
-        <v>64</v>
-      </c>
-      <c r="C44">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B45">
-        <f ca="1">3</f>
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B46">
-        <f ca="1">59</f>
-        <v>59</v>
-      </c>
-      <c r="C46">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B47">
-        <f ca="1">2</f>
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B48">
-        <f ca="1">54</f>
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B49">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B50">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f ca="1">"load"</f>
-        <v>load</v>
-      </c>
-      <c r="B51" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C51">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B52" t="b">
-        <f ca="1">TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f ca="1">"goto if true"</f>
-        <v>goto if true</v>
-      </c>
-      <c r="B53" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C53">
-        <f ca="1">-2</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f ca="1">"f7:"</f>
-        <v>f7:</v>
-      </c>
-      <c r="B54" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C54">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B55">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f ca="1">"load"</f>
-        <v>load</v>
-      </c>
-      <c r="B56" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C56">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B57" t="b">
-        <f ca="1">TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f ca="1">"goto if true"</f>
-        <v>goto if true</v>
       </c>
       <c r="B58" t="str">
         <f ca="1">""</f>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f ca="1">"f6:"</f>
-        <v>f6:</v>
-      </c>
-      <c r="B59" t="str">
-        <f ca="1">""</f>
-        <v/>
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B59">
+        <f ca="1">65</f>
+        <v>65</v>
       </c>
       <c r="C59">
-        <f ca="1">0</f>
-        <v>0</v>
+        <f ca="1">1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,224 +1392,112 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B61">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
         <f ca="1">"load"</f>
         <v>load</v>
       </c>
-      <c r="B61" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C61">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B62" t="b">
-        <f ca="1">TRUE</f>
-        <v>1</v>
+      <c r="B62" t="str">
+        <f ca="1">""</f>
+        <v/>
       </c>
       <c r="C62">
-        <f ca="1">1</f>
-        <v>1</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B63" t="b">
+        <f ca="1">TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
         <f ca="1">"goto if true"</f>
         <v>goto if true</v>
       </c>
-      <c r="B63" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C63">
+      <c r="B64" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C64">
         <f ca="1">-2</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f ca="1">"f5:"</f>
-        <v>f5:</v>
-      </c>
-      <c r="B64" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C64">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B65">
-        <f ca="1">0</f>
-        <v>0</v>
+        <f ca="1">"f4:"</f>
+        <v>f4:</v>
+      </c>
+      <c r="B65" t="str">
+        <f ca="1">""</f>
+        <v/>
       </c>
       <c r="C65">
-        <f ca="1">1</f>
-        <v>1</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
+        <f ca="1">"push"</f>
+        <v>push</v>
+      </c>
+      <c r="B66">
+        <f ca="1">0</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f ca="1">1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
         <f ca="1">"load"</f>
         <v>load</v>
       </c>
-      <c r="B66" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C66">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f ca="1">"print"</f>
-        <v>print</v>
-      </c>
       <c r="B67" t="str">
         <f ca="1">""</f>
         <v/>
       </c>
       <c r="C67">
-        <f ca="1">-1</f>
-        <v>-1</v>
+        <f ca="1">0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B68" t="b">
-        <f ca="1">TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f ca="1">"goto if true"</f>
-        <v>goto if true</v>
-      </c>
-      <c r="B69" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C69">
-        <f ca="1">-2</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f ca="1">"f4:"</f>
-        <v>f4:</v>
-      </c>
-      <c r="B70" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C70">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B71">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f ca="1">"load"</f>
-        <v>load</v>
-      </c>
-      <c r="B72" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C72">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B73">
-        <f ca="1">5</f>
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f ca="1">"store"</f>
-        <v>store</v>
-      </c>
-      <c r="B74" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C74">
-        <f ca="1">-2</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f ca="1">"push"</f>
-        <v>push</v>
-      </c>
-      <c r="B75">
-        <f ca="1">0</f>
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <f ca="1">1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
         <f ca="1">"end"</f>
         <v>end</v>
       </c>
-      <c r="B76" t="str">
-        <f ca="1">""</f>
-        <v/>
-      </c>
-      <c r="C76">
+      <c r="B68" t="str">
+        <f ca="1">""</f>
+        <v/>
+      </c>
+      <c r="C68">
         <f ca="1">0</f>
         <v>0</v>
       </c>
